--- a/merchex/Excels/Bordeaux_Export_Resultats.xlsx
+++ b/merchex/Excels/Bordeaux_Export_Resultats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -1158,6 +1158,9 @@
     <x:t>24/02/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
     <x:t>25/02/2025</x:t>
   </x:si>
   <x:si>
@@ -1179,6 +1182,9 @@
     <x:t>13/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
     <x:t>17/03/2025</x:t>
   </x:si>
   <x:si>
@@ -1191,9 +1197,15 @@
     <x:t>20/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>14:30</x:t>
+  </x:si>
+  <x:si>
     <x:t>24/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>17:45</x:t>
+  </x:si>
+  <x:si>
     <x:t>25/03/2025</x:t>
   </x:si>
   <x:si>
@@ -1204,6 +1216,9 @@
   </x:si>
   <x:si>
     <x:t>31/03/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/04/2025</x:t>
   </x:si>
   <x:si>
     <x:t>03/04/2025</x:t>
@@ -1583,7 +1598,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P839"/>
+  <x:dimension ref="A1:P832"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -13227,18 +13242,18 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F363" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G363" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H363" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I363" s="1" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="P363" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L363" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -13707,18 +13722,18 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F378" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G378" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H378" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I378" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="P378" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M378" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -13814,6 +13829,9 @@
       <x:c r="I381" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="M381" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="382" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A382" s="1" t="s">
@@ -14393,10 +14411,10 @@
       <x:c r="I399" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="L399" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="M399" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="P399" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -14516,15 +14534,15 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G403" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H403" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I403" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P403" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L403" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -14705,18 +14723,18 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="F409" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G409" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H409" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I409" s="1" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="P409" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L409" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -14751,6 +14769,9 @@
       <x:c r="L410" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="M410" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="411" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A411" s="1" t="s">
@@ -14833,18 +14854,18 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F413" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G413" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H413" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I413" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="P413" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L413" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -14993,16 +15014,16 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="F418" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G418" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="G418" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="H418" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I418" s="1" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="I418" s="1" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="P418" s="1" t="s">
         <x:v>21</x:v>
@@ -15548,10 +15569,10 @@
       <x:c r="I435" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="L435" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="M435" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="P435" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -15956,18 +15977,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F448" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G448" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H448" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I448" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="P448" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M448" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -15988,18 +16009,18 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="F449" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G449" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H449" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I449" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P449" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L449" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -16375,18 +16396,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F461" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G461" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H461" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I461" s="1" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="P461" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M461" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -16453,9 +16474,6 @@
       <x:c r="L463" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P463" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="464" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A464" s="1" t="s">
@@ -16474,18 +16492,18 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F464" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G464" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H464" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I464" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P464" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M464" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -16840,9 +16858,6 @@
       <x:c r="M475" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P475" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="476" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A476" s="1" t="s">
@@ -17163,9 +17178,6 @@
       <x:c r="L485" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P485" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="486" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A486" s="1" t="s">
@@ -17219,15 +17231,15 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G487" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H487" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I487" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P487" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M487" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -18289,9 +18301,6 @@
       <x:c r="M520" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P520" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="521" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A521" s="1" t="s">
@@ -18324,9 +18333,6 @@
       <x:c r="M521" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P521" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="522" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A522" s="1" t="s">
@@ -18505,18 +18511,18 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F527" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G527" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H527" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I527" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="P527" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L527" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -18988,15 +18994,15 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G542" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H542" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I542" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="P542" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L542" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -19159,9 +19165,6 @@
       <x:c r="M547" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P547" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="548" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A548" s="1" t="s">
@@ -19319,6 +19322,12 @@
       <x:c r="I552" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="L552" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P552" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="553" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A553" s="1" t="s">
@@ -19596,15 +19605,15 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G561" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H561" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I561" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="P561" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L561" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -20044,18 +20053,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F575" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G575" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H575" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I575" s="1" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="P575" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M575" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -20154,9 +20163,6 @@
       <x:c r="L578" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P578" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="579" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A579" s="1" t="s">
@@ -20271,18 +20277,18 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G582" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H582" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I582" s="1" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="P582" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M582" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -20349,9 +20355,6 @@
       <x:c r="M584" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P584" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="585" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A585" s="1" t="s">
@@ -20544,9 +20547,6 @@
       <x:c r="L590" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P590" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="591" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A591" s="1" t="s">
@@ -20643,9 +20643,6 @@
       <x:c r="L593" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P593" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
     </x:row>
     <x:row r="594" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A594" s="1" t="s">
@@ -21091,6 +21088,9 @@
       <x:c r="I607" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="P607" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="608" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A608" s="1" t="s">
@@ -21109,16 +21109,19 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="F608" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G608" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H608" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I608" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="P608" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="609" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21138,16 +21141,19 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="F609" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G609" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H609" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I609" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P609" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="610" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21167,16 +21173,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F610" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G610" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H610" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I610" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P610" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="611" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21196,16 +21205,19 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F611" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G611" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H611" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I611" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P611" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="612" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21225,16 +21237,19 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="F612" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="G612" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H612" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I612" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="P612" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="613" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21254,16 +21269,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F613" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="G613" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H613" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="I613" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="P613" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="614" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21283,16 +21301,19 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="F614" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G614" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H614" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I614" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="P614" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21312,16 +21333,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F615" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G615" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H615" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I615" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="P615" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="616" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21329,7 +21353,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="B616" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C616" s="1" t="s">
         <x:v>69</x:v>
@@ -21341,74 +21365,83 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F616" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="G616" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H616" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="I616" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="P616" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="617" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A617" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B617" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C617" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D617" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E617" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F617" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G617" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H617" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I617" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P617" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A618" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B618" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C618" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D618" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E618" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F618" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G618" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="H618" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I618" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="P618" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21416,57 +21449,63 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="B619" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C619" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D619" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E619" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F619" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G619" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H619" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I619" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="P619" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="620" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A620" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B620" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C620" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D620" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E620" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F620" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G620" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H620" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I620" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="P620" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="621" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21474,57 +21513,63 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="B621" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C621" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D621" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E621" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F621" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G621" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H621" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I621" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="P621" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="622" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A622" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B622" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C622" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D622" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E622" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F622" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G622" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H622" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I622" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P622" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="623" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21532,115 +21577,127 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="B623" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C623" s="1" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="D623" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E623" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F623" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G623" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H623" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I623" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P623" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A624" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B624" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C624" s="1" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="D624" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E624" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F624" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G624" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H624" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I624" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P624" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A625" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B625" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C625" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D625" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E625" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F625" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G625" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H625" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I625" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="P625" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="626" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A626" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B626" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C626" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="D626" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E626" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F626" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G626" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H626" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I626" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P626" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="627" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21648,103 +21705,112 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="B627" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C627" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="D627" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E627" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="F627" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G627" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H627" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I627" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P627" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="628" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A628" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B628" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C628" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D628" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E628" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F628" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="G628" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H628" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="I628" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P628" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="629" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A629" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B629" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C629" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D629" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E629" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F629" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G629" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H629" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I629" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="P629" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="630" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A630" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B630" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C630" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D630" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E630" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F630" s="1" t="s">
         <x:v>20</x:v>
@@ -21757,139 +21823,157 @@
       </x:c>
       <x:c r="I630" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L630" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P630" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="631" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A631" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B631" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C631" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D631" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E631" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F631" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G631" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H631" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I631" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P631" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A632" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B632" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C632" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D632" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E632" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F632" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G632" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H632" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I632" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P632" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A633" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B633" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C633" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D633" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E633" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F633" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G633" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H633" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="I633" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="P633" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A634" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B634" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C634" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D634" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E634" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F634" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="G634" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H634" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="I634" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="P634" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="635" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A635" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B635" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C635" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D635" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E635" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F635" s="1" t="s">
         <x:v>20</x:v>
@@ -21902,64 +21986,73 @@
       </x:c>
       <x:c r="I635" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L635" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="636" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A636" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B636" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C636" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D636" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E636" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F636" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G636" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H636" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I636" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="P636" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="637" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A637" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B637" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C637" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D637" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E637" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F637" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G637" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H637" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I637" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="P637" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="638" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -21967,219 +22060,240 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="B638" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C638" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D638" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E638" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F638" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G638" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H638" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I638" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P638" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="639" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A639" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B639" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C639" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D639" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E639" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F639" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G639" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H639" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I639" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P639" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="640" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A640" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B640" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C640" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D640" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E640" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F640" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G640" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H640" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I640" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P640" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="641" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A641" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B641" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C641" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D641" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E641" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H641" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I641" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P641" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="642" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A642" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B642" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C642" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D642" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E642" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F642" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G642" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H642" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I642" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="P642" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="643" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A643" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B643" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C643" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D643" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E643" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F643" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G643" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H643" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I643" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P643" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A644" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B644" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C644" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D644" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E644" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F644" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G644" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H644" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="I644" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P644" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="645" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A645" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B645" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C645" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D645" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E645" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F645" s="1" t="s">
         <x:v>20</x:v>
@@ -22192,23 +22306,26 @@
       </x:c>
       <x:c r="I645" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L645" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="646" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A646" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B646" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C646" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D646" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E646" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F646" s="1" t="s">
         <x:v>20</x:v>
@@ -22221,52 +22338,58 @@
       </x:c>
       <x:c r="I646" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L646" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A647" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B647" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C647" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D647" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E647" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F647" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G647" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H647" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I647" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P647" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="648" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A648" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B648" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C648" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D648" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E648" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F648" s="1" t="s">
         <x:v>20</x:v>
@@ -22279,81 +22402,90 @@
       </x:c>
       <x:c r="I648" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M648" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="649" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A649" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B649" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C649" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D649" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E649" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F649" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G649" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H649" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I649" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="P649" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="650" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A650" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B650" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C650" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D650" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E650" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F650" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G650" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H650" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I650" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P650" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="651" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A651" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B651" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C651" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D651" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E651" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F651" s="1" t="s">
         <x:v>20</x:v>
@@ -22366,52 +22498,61 @@
       </x:c>
       <x:c r="I651" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L651" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P651" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="652" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A652" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B652" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C652" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D652" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E652" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F652" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G652" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H652" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I652" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="P652" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="653" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A653" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B653" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C653" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D653" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E653" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F653" s="1" t="s">
         <x:v>20</x:v>
@@ -22424,23 +22565,29 @@
       </x:c>
       <x:c r="I653" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L653" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M653" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="654" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A654" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B654" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C654" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D654" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E654" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F654" s="1" t="s">
         <x:v>20</x:v>
@@ -22453,516 +22600,570 @@
       </x:c>
       <x:c r="I654" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L654" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="655" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A655" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B655" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C655" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D655" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E655" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F655" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G655" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H655" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I655" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P655" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A656" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B656" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C656" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D656" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E656" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F656" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G656" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H656" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I656" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P656" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A657" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B657" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C657" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D657" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E657" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F657" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G657" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H657" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I657" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P657" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A658" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B658" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C658" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D658" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E658" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F658" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G658" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H658" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I658" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P658" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="659" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A659" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B659" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C659" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D659" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E659" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F659" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G659" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H659" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I659" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P659" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="660" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A660" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B660" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C660" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D660" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E660" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F660" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G660" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H660" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I660" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P660" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A661" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B661" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C661" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D661" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E661" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F661" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G661" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H661" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I661" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="P661" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="662" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A662" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B662" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C662" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D662" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E662" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F662" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G662" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H662" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I662" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P662" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="663" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A663" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B663" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C663" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D663" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E663" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F663" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G663" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H663" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I663" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P663" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="664" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A664" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B664" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C664" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D664" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E664" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F664" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G664" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H664" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I664" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="P664" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A665" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B665" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C665" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D665" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E665" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F665" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G665" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H665" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I665" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P665" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A666" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B666" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C666" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D666" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E666" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F666" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G666" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H666" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I666" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P666" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A667" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B667" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C667" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D667" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E667" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F667" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G667" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H667" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I667" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="P667" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A668" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B668" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C668" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D668" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E668" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F668" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G668" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H668" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I668" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P668" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A669" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B669" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C669" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D669" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E669" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F669" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G669" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H669" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I669" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="P669" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A670" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B670" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C670" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D670" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E670" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F670" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G670" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H670" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I670" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="P670" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="671" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A671" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B671" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C671" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D671" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E671" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F671" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G671" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H671" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I671" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="P671" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A672" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B672" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C672" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D672" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E672" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F672" s="1" t="s">
         <x:v>20</x:v>
@@ -22975,23 +23176,26 @@
       </x:c>
       <x:c r="I672" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M672" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="673" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A673" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B673" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C673" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D673" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E673" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F673" s="1" t="s">
         <x:v>20</x:v>
@@ -23004,52 +23208,58 @@
       </x:c>
       <x:c r="I673" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L673" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A674" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B674" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C674" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D674" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E674" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F674" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G674" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H674" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I674" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P674" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A675" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B675" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C675" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D675" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E675" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
         <x:v>20</x:v>
@@ -23062,78 +23272,87 @@
       </x:c>
       <x:c r="I675" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M675" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="676" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A676" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B676" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C676" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D676" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E676" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F676" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G676" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H676" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I676" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="P676" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="677" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A677" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B677" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C677" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D677" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F677" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G677" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H677" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I677" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P677" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="678" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A678" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B678" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C678" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D678" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E678" s="1" t="s">
         <x:v>18</x:v>
@@ -23150,92 +23369,104 @@
       <x:c r="I678" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="M678" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="679" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A679" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B679" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C679" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D679" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E679" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F679" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G679" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H679" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I679" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P679" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="680" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A680" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B680" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C680" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D680" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E680" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F680" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G680" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H680" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I680" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P680" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="681" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A681" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B681" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C681" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D681" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E681" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="F681" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G681" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H681" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I681" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P681" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="682" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -23243,277 +23474,304 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="B682" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C682" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D682" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E682" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F682" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G682" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H682" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I682" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P682" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="683" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A683" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B683" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C683" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D683" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E683" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F683" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G683" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H683" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I683" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P683" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="684" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A684" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B684" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C684" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D684" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E684" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F684" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G684" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H684" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I684" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P684" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A685" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B685" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C685" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D685" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E685" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F685" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G685" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H685" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I685" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="P685" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A686" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B686" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C686" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D686" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E686" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F686" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G686" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H686" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I686" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="P686" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A687" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B687" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C687" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D687" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E687" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F687" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G687" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H687" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I687" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="P687" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="688" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A688" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B688" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C688" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D688" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E688" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F688" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G688" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H688" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I688" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="P688" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="689" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A689" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B689" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C689" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D689" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E689" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F689" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G689" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H689" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I689" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P689" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="690" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A690" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B690" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C690" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D690" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E690" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F690" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G690" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H690" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I690" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P690" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="691" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A691" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B691" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C691" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D691" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E691" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F691" s="1" t="s">
         <x:v>20</x:v>
@@ -23526,371 +23784,410 @@
       </x:c>
       <x:c r="I691" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M691" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="692" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A692" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B692" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C692" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D692" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E692" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F692" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G692" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H692" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I692" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P692" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="693" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A693" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B693" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C693" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D693" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E693" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F693" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G693" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H693" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="I693" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="P693" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="694" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A694" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B694" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C694" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D694" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E694" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F694" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G694" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H694" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I694" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="P694" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="695" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A695" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B695" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C695" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D695" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E695" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F695" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G695" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H695" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I695" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="P695" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="696" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A696" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B696" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C696" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D696" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E696" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F696" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G696" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H696" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I696" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P696" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A697" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B697" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C697" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D697" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E697" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F697" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G697" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H697" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I697" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P697" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A698" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B698" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C698" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D698" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E698" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="F698" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G698" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H698" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I698" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P698" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="699" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A699" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B699" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C699" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D699" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E699" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F699" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="G699" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H699" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="I699" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="P699" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A700" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B700" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C700" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D700" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E700" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F700" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G700" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H700" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I700" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="P700" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A701" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B701" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C701" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D701" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E701" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F701" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G701" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H701" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I701" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P701" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="702" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A702" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B702" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C702" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D702" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E702" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F702" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G702" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H702" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I702" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P702" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="703" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A703" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B703" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C703" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D703" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E703" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F703" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G703" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H703" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I703" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P703" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="704" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A704" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B704" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C704" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D704" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E704" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F704" s="1" t="s">
         <x:v>20</x:v>
@@ -23903,81 +24200,90 @@
       </x:c>
       <x:c r="I704" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M704" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="705" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A705" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B705" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C705" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D705" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E705" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F705" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G705" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H705" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I705" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="P705" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="706" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A706" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B706" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C706" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D706" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E706" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F706" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G706" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H706" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I706" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P706" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="707" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A707" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B707" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C707" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D707" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E707" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F707" s="1" t="s">
         <x:v>20</x:v>
@@ -23990,197 +24296,218 @@
       </x:c>
       <x:c r="I707" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L707" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="708" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A708" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B708" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C708" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D708" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E708" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F708" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G708" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H708" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I708" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P708" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="709" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A709" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B709" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C709" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D709" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E709" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F709" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G709" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H709" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I709" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P709" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="710" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A710" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B710" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C710" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D710" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E710" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F710" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G710" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H710" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I710" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P710" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="711" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A711" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B711" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C711" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D711" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E711" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F711" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G711" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H711" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I711" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P711" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="712" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A712" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B712" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C712" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D712" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E712" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F712" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G712" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H712" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I712" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P712" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="713" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A713" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B713" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C713" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D713" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E713" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F713" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G713" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H713" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I713" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P713" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="714" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A714" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B714" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C714" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D714" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E714" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F714" s="1" t="s">
         <x:v>20</x:v>
@@ -24193,159 +24520,180 @@
       </x:c>
       <x:c r="I714" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M714" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P714" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="715" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A715" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B715" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C715" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D715" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E715" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F715" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G715" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H715" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I715" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P715" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="716" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A716" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B716" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C716" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D716" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E716" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F716" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G716" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H716" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I716" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P716" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="717" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A717" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B717" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C717" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D717" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E717" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F717" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G717" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H717" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I717" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="P717" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="718" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A718" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B718" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C718" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D718" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E718" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F718" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G718" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H718" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I718" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="P718" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="719" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A719" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B719" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C719" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D719" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E719" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F719" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G719" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H719" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I719" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P719" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="720" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A720" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B720" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C720" s="1" t="s">
         <x:v>16</x:v>
@@ -24354,123 +24702,135 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E720" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F720" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G720" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H720" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I720" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="P720" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="721" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A721" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B721" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C721" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D721" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E721" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F721" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G721" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H721" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I721" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P721" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="722" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A722" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B722" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C722" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D722" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E722" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F722" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G722" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="H722" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I722" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="P722" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="723" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A723" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B723" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C723" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D723" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E723" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F723" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G723" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H723" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I723" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="P723" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="724" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A724" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B724" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C724" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D724" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E724" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="F724" s="1" t="s">
         <x:v>20</x:v>
@@ -24483,151 +24843,172 @@
       </x:c>
       <x:c r="I724" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M724" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P724" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="725" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A725" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B725" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C725" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D725" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E725" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F725" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G725" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H725" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I725" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="P725" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="726" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A726" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B726" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C726" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D726" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E726" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F726" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G726" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H726" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I726" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P726" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="727" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A727" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B727" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C727" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D727" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E727" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F727" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G727" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H727" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I727" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P727" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="728" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A728" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B728" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C728" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D728" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E728" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F728" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G728" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H728" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I728" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="P728" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="729" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A729" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B729" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C729" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D729" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E729" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F729" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G729" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H729" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I729" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P729" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="730" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -24635,57 +25016,63 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="B730" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C730" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D730" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E730" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F730" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G730" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H730" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I730" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="P730" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="731" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A731" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B731" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C731" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D731" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E731" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F731" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G731" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H731" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I731" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P731" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="732" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -24693,190 +25080,208 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="B732" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C732" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D732" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E732" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F732" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G732" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H732" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I732" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P732" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="733" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A733" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B733" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C733" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D733" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E733" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F733" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G733" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H733" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I733" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P733" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="734" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A734" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B734" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C734" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D734" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E734" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F734" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G734" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H734" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I734" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P734" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="735" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A735" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B735" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C735" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D735" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E735" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F735" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G735" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H735" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I735" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P735" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="736" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A736" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B736" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C736" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D736" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E736" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F736" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G736" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H736" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I736" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P736" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A737" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B737" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C737" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D737" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E737" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F737" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G737" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H737" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="I737" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P737" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A738" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B738" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C738" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D738" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E738" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F738" s="1" t="s">
         <x:v>20</x:v>
@@ -24889,52 +25294,58 @@
       </x:c>
       <x:c r="I738" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M738" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="739" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A739" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B739" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C739" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D739" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E739" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F739" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G739" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H739" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I739" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P739" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="740" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A740" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B740" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C740" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D740" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E740" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F740" s="1" t="s">
         <x:v>20</x:v>
@@ -24947,139 +25358,154 @@
       </x:c>
       <x:c r="I740" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L740" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="741" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A741" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B741" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C741" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D741" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E741" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F741" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G741" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H741" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I741" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="P741" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A742" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B742" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C742" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D742" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E742" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F742" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G742" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H742" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I742" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P742" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A743" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B743" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C743" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D743" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E743" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F743" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G743" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H743" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I743" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="P743" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="744" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A744" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B744" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C744" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D744" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E744" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F744" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G744" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H744" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I744" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P744" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="745" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A745" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B745" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C745" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D745" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E745" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F745" s="1" t="s">
         <x:v>20</x:v>
@@ -25092,313 +25518,346 @@
       </x:c>
       <x:c r="I745" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M745" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="746" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A746" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B746" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C746" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D746" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E746" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F746" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G746" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H746" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I746" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P746" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="747" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A747" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B747" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C747" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D747" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E747" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F747" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G747" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H747" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I747" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P747" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="748" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A748" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B748" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C748" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D748" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E748" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F748" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G748" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H748" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I748" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P748" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="749" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A749" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B749" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C749" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D749" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E749" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F749" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G749" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H749" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I749" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="P749" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="750" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A750" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B750" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C750" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D750" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E750" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F750" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G750" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H750" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I750" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P750" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="751" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A751" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B751" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C751" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D751" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E751" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F751" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G751" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H751" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I751" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P751" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="752" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A752" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B752" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C752" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D752" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E752" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F752" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G752" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H752" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I752" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P752" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="753" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A753" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B753" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C753" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D753" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E753" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F753" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G753" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H753" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I753" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P753" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="754" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A754" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B754" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C754" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D754" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="E754" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F754" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G754" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H754" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I754" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="P754" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="755" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A755" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B755" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C755" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D755" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E755" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F755" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G755" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H755" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I755" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="P755" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="756" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A756" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B756" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C756" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D756" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E756" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F756" s="1" t="s">
         <x:v>20</x:v>
@@ -25411,23 +25870,29 @@
       </x:c>
       <x:c r="I756" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L756" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P756" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="757" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A757" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B757" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C757" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D757" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E757" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F757" s="1" t="s">
         <x:v>20</x:v>
@@ -25440,81 +25905,93 @@
       </x:c>
       <x:c r="I757" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M757" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P757" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="758" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A758" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B758" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C758" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D758" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E758" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F758" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G758" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H758" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I758" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P758" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A759" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B759" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C759" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D759" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E759" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F759" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G759" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H759" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I759" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="P759" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="760" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A760" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B760" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C760" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D760" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E760" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F760" s="1" t="s">
         <x:v>20</x:v>
@@ -25527,255 +26004,282 @@
       </x:c>
       <x:c r="I760" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L760" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="761" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A761" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B761" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C761" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D761" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E761" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F761" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G761" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H761" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I761" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P761" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="762" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A762" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B762" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C762" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D762" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E762" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F762" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G762" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H762" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I762" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="P762" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="763" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A763" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B763" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C763" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D763" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E763" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F763" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G763" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H763" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I763" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P763" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="764" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A764" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B764" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C764" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D764" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E764" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F764" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G764" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H764" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I764" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P764" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="765" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A765" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B765" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C765" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D765" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E765" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G765" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H765" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I765" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P765" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="766" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A766" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B766" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C766" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D766" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E766" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F766" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G766" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H766" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I766" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P766" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="767" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A767" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B767" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C767" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D767" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E767" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F767" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G767" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H767" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I767" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P767" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="768" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A768" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B768" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C768" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D768" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E768" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F768" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G768" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H768" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I768" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P768" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="769" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A769" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B769" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C769" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D769" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E769" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F769" s="1" t="s">
         <x:v>20</x:v>
@@ -25788,52 +26292,58 @@
       </x:c>
       <x:c r="I769" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M769" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="770" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A770" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B770" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C770" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D770" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E770" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F770" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G770" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H770" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I770" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="P770" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="771" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A771" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B771" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C771" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D771" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E771" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F771" s="1" t="s">
         <x:v>20</x:v>
@@ -25846,82 +26356,94 @@
       </x:c>
       <x:c r="I771" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M771" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P771" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="772" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A772" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B772" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C772" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D772" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E772" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F772" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G772" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H772" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I772" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P772" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="773" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A773" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B773" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C773" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D773" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E773" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F773" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G773" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H773" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I773" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P773" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="774" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A774" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B774" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C774" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D774" s="1" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="E774" s="1" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="E774" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
       <x:c r="F774" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -25933,226 +26455,250 @@
       </x:c>
       <x:c r="I774" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L774" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="775" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A775" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B775" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C775" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D775" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E775" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F775" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G775" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H775" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I775" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="P775" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="776" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A776" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B776" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C776" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D776" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E776" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F776" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G776" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H776" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I776" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P776" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="777" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A777" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B777" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C777" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D777" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E777" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F777" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G777" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H777" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I777" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P777" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="778" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A778" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B778" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C778" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D778" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E778" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F778" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G778" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H778" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I778" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P778" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="779" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A779" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B779" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C779" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D779" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E779" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F779" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G779" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H779" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="I779" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="P779" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="780" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A780" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B780" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C780" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D780" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E780" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F780" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G780" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H780" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I780" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="P780" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="781" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A781" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B781" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C781" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D781" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E781" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="F781" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G781" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H781" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I781" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="P781" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="782" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A782" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B782" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C782" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D782" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E782" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F782" s="1" t="s">
         <x:v>20</x:v>
@@ -26165,81 +26711,93 @@
       </x:c>
       <x:c r="I782" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M782" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P782" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="783" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A783" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B783" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C783" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D783" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E783" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F783" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G783" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H783" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I783" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P783" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="784" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A784" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B784" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C784" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D784" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E784" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F784" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G784" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H784" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I784" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P784" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="785" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A785" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B785" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C785" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D785" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E785" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F785" s="1" t="s">
         <x:v>20</x:v>
@@ -26252,81 +26810,90 @@
       </x:c>
       <x:c r="I785" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L785" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="786" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A786" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B786" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C786" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D786" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E786" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F786" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G786" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H786" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I786" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="P786" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="787" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A787" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B787" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C787" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D787" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E787" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F787" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G787" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H787" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I787" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P787" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A788" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B788" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C788" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D788" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E788" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F788" s="1" t="s">
         <x:v>20</x:v>
@@ -26339,82 +26906,94 @@
       </x:c>
       <x:c r="I788" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M788" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P788" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="789" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A789" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B789" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C789" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D789" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E789" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F789" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G789" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H789" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I789" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P789" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="790" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A790" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B790" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C790" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D790" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E790" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F790" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G790" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H790" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="I790" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="P790" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="791" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A791" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B791" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C791" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D791" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E791" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E791" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="F791" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -26426,23 +27005,29 @@
       </x:c>
       <x:c r="I791" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L791" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P791" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="792" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A792" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B792" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C792" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D792" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E792" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F792" s="1" t="s">
         <x:v>20</x:v>
@@ -26455,23 +27040,26 @@
       </x:c>
       <x:c r="I792" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L792" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A793" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B793" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C793" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D793" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E793" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F793" s="1" t="s">
         <x:v>20</x:v>
@@ -26484,110 +27072,122 @@
       </x:c>
       <x:c r="I793" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M793" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="794" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A794" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B794" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C794" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D794" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E794" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F794" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G794" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H794" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I794" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P794" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="795" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A795" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B795" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C795" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D795" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E795" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F795" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G795" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H795" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I795" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P795" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="796" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A796" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B796" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C796" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D796" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E796" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F796" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G796" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H796" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I796" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P796" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="797" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A797" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B797" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C797" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D797" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E797" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F797" s="1" t="s">
         <x:v>20</x:v>
@@ -26600,23 +27200,29 @@
       </x:c>
       <x:c r="I797" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L797" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P797" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="798" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A798" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B798" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C798" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D798" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E798" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F798" s="1" t="s">
         <x:v>20</x:v>
@@ -26629,78 +27235,90 @@
       </x:c>
       <x:c r="I798" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L798" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P798" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="799" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A799" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B799" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C799" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D799" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E799" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F799" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G799" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H799" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I799" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P799" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="800" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A800" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B800" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C800" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D800" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E800" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F800" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G800" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H800" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I800" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P800" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="801" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A801" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B801" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C801" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D801" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E801" s="1" t="s">
         <x:v>26</x:v>
@@ -26717,573 +27335,633 @@
       <x:c r="I801" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
+      <x:c r="M801" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="802" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A802" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B802" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C802" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D802" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E802" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F802" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G802" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H802" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I802" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="P802" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="803" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A803" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B803" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C803" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D803" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E803" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="F803" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G803" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H803" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I803" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="P803" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="804" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A804" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B804" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C804" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D804" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E804" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F804" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G804" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H804" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I804" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="P804" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="805" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A805" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B805" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C805" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D805" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E805" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F805" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G805" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H805" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I805" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P805" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="806" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A806" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B806" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C806" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D806" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E806" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F806" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G806" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H806" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I806" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P806" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="807" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A807" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B807" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C807" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D807" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E807" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="F807" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G807" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H807" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I807" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P807" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="808" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A808" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B808" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C808" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D808" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E808" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F808" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G808" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H808" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I808" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P808" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="809" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A809" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B809" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C809" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D809" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E809" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F809" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G809" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H809" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I809" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="P809" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="810" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A810" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B810" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C810" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D810" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E810" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F810" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G810" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H810" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I810" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P810" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="811" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A811" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B811" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C811" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D811" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E811" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F811" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G811" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H811" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I811" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="P811" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="812" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A812" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B812" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C812" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D812" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E812" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F812" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G812" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H812" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I812" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P812" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="813" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A813" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B813" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C813" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D813" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E813" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F813" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G813" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H813" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I813" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P813" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="814" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A814" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B814" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C814" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D814" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E814" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F814" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G814" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H814" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I814" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P814" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="815" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A815" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B815" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C815" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D815" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E815" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F815" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G815" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H815" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I815" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P815" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="816" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A816" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B816" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C816" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D816" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E816" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F816" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G816" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="H816" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I816" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="P816" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="817" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A817" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B817" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C817" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D817" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E817" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F817" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G817" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H817" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I817" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="P817" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="818" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A818" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B818" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C818" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D818" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E818" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F818" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G818" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H818" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I818" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P818" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="819" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A819" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B819" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C819" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D819" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E819" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F819" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G819" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H819" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I819" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P819" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="820" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A820" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B820" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C820" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D820" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E820" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F820" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G820" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H820" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I820" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P820" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="821" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A821" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B821" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C821" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D821" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E821" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F821" s="1" t="s">
         <x:v>20</x:v>
@@ -27296,52 +27974,58 @@
       </x:c>
       <x:c r="I821" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="M821" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="822" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A822" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B822" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C822" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D822" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E822" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F822" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G822" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H822" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I822" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="P822" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="823" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A823" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B823" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C823" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D823" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E823" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F823" s="1" t="s">
         <x:v>20</x:v>
@@ -27354,110 +28038,122 @@
       </x:c>
       <x:c r="I823" s="1" t="s">
         <x:v>20</x:v>
+      </x:c>
+      <x:c r="L823" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="824" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A824" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B824" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C824" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="D824" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E824" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F824" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G824" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H824" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I824" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="P824" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="825" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A825" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B825" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C825" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D825" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E825" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F825" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G825" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H825" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I825" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="P825" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="826" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A826" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B826" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C826" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D826" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E826" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F826" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G826" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H826" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I826" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="P826" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="827" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A827" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B827" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C827" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D827" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E827" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F827" s="1" t="s">
         <x:v>20</x:v>
@@ -27471,215 +28167,18 @@
       <x:c r="I827" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-    </x:row>
-    <x:row r="828" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A828" s="1" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B828" s="1" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C828" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D828" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E828" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F828" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G828" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H828" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I828" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="829" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A829" s="1" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B829" s="1" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C829" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D829" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E829" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F829" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G829" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H829" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I829" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="830" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A830" s="1" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B830" s="1" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C830" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D830" s="1" t="s">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="E830" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F830" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G830" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H830" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I830" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="831" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A831" s="1" t="s">
-        <x:v>328</x:v>
-      </x:c>
-      <x:c r="B831" s="1" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C831" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D831" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E831" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="F831" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G831" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H831" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I831" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="832" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A832" s="1" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="B832" s="1" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C832" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D832" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E832" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F832" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G832" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H832" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I832" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="833" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A833" s="1" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="B833" s="1" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="C833" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D833" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E833" s="1" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="F833" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G833" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H833" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I833" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="834" spans="1:16" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A834" s="1" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="B834" s="1" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="C834" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D834" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E834" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F834" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G834" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H834" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I834" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="835" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="836" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="837" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="838" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="839" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="M827" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P827" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="828" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="829" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="830" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="831" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="832" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:P1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
